--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625616</v>
+        <v>399383.5293367548</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347758</v>
+        <v>8547013.059513928</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815497</v>
+        <v>8673692.685730744</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.8461210887085</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.3420634549344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.74429141345871</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.8461210887085</v>
+        <v>29.00874781031906</v>
       </c>
       <c r="T3" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>21.41405905276465</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>123.017299287606</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>22.7749124282733</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345807</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>29.27406286320331</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.47835778729062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>29.00874781031926</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>15.4022924851446</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="I10" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>267.3434267027867</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.34825474388549</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646375</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1499,7 +1499,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>286.9936949083706</v>
       </c>
       <c r="F14" t="n">
-        <v>223.7383150556605</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
         <v>89.59687541851115</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>91.61967336763936</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>149.5553587855456</v>
       </c>
       <c r="G17" t="n">
-        <v>142.0975176632397</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247742</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>221.7048515690722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>33.21555324159417</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>168.1158122680963</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>73.08937855085976</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24.27311936183877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>132.6536735427086</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>35.19979243143079</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>128.5769227996561</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>78.35381101375758</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.791624857387946</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>229.7965692041367</v>
+        <v>306.5255887226659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,7 +2888,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247742</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.77200357366344</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>256.7273523546845</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>191.0922221582256</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>127.3385186497847</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.87955485821216</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>230.198481639546</v>
+        <v>131.0573912450687</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>61.36917500886953</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>225.5286766224913</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>304.4930832847256</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.3991884271815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>95.17890526428842</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>313.3962193402706</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>61.03068881011993</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>126.6623413033684</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4856996582646</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>120.6088074159615</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>132.6182532445037</v>
+        <v>67.01639106801579</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.4065201693362</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C2" t="n">
-        <v>160.0771049282164</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709668</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709668</v>
+        <v>371.26277863231</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709668</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709668</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183017</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458394</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066257</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>407.650846758856</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735303</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548342</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>456.735935410456</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>142.3962386314749</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>39.7722264683681</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616808</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9598290415665</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>286.5382069752468</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9158668530682</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1875401335669</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>586.7735145200476</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548342</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>439.0550691137144</v>
+        <v>720.8005832003107</v>
       </c>
       <c r="T3" t="n">
-        <v>290.7256538725946</v>
+        <v>531.380798183826</v>
       </c>
       <c r="U3" t="n">
-        <v>290.7256538725946</v>
+        <v>531.380798183826</v>
       </c>
       <c r="V3" t="n">
-        <v>142.3962386314749</v>
+        <v>341.9610131673412</v>
       </c>
       <c r="W3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="X3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y3" t="n">
-        <v>142.3962386314749</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543237</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510262</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665694</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>33.37805236665694</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>33.37805236665694</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>33.37805236665694</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>33.37805236665694</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709668</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0550691137153</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>290.7256538725952</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>142.3962386314752</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>18.13634036116611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183029</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458398</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>271.121766306626</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588566</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735312</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548353</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>587.3844843548353</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U5" t="n">
-        <v>587.3844843548353</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V5" t="n">
-        <v>587.3844843548353</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="W5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y5" t="n">
-        <v>587.3844843548353</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616825</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415669</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>286.5382069752474</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>431.9158668530691</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408233</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200486</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>509.3106579270999</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S6" t="n">
-        <v>360.9812426859799</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T6" t="n">
-        <v>212.6518274448598</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U6" t="n">
-        <v>212.6518274448598</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="V6" t="n">
-        <v>183.0820669769777</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W6" t="n">
-        <v>183.0820669769777</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="X6" t="n">
-        <v>183.0820669769777</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.75265173585761</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543247</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510284</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665727</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>25.36219250254178</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>25.36219250254178</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>25.36219250254178</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>25.36219250254178</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="C8" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="D8" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062745</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F8" t="n">
-        <v>393.8416170062745</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G8" t="n">
-        <v>204.4218319897901</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
         <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123825</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652786</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652786</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652786</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W8" t="n">
-        <v>560.682563648794</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X8" t="n">
-        <v>560.682563648794</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.682563648794</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330557</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330557</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330557</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330557</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330557</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198748</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T9" t="n">
-        <v>409.3994882033903</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U9" t="n">
-        <v>219.9797031869058</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V9" t="n">
-        <v>219.9797031869058</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W9" t="n">
-        <v>30.55991817042133</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330557</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330557</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1221.525483338121</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C11" t="n">
-        <v>852.5629663977095</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2972677909589</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F11" t="n">
         <v>108.5090151927147</v>
@@ -5038,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3055.56195625282</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V11" t="n">
-        <v>2724.499068909249</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W11" t="n">
-        <v>2371.730413639134</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.264655378055</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.125323402243</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5147,25 +5147,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5187,22 +5187,22 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596504</v>
@@ -5223,28 +5223,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181845</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1405.52688261361</v>
+        <v>2249.271807195287</v>
       </c>
       <c r="C14" t="n">
-        <v>1036.564365673199</v>
+        <v>1880.309290254875</v>
       </c>
       <c r="D14" t="n">
-        <v>678.2986670664484</v>
+        <v>1522.043591648125</v>
       </c>
       <c r="E14" t="n">
-        <v>292.5104144682041</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.266054653544</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y14" t="n">
-        <v>1792.126722677732</v>
+        <v>2635.871647259409</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5445,43 +5445,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1734.047335491682</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.08481855127</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D17" t="n">
-        <v>1006.81911994452</v>
+        <v>900.949988396959</v>
       </c>
       <c r="E17" t="n">
-        <v>621.0308673462755</v>
+        <v>515.1617357987147</v>
       </c>
       <c r="F17" t="n">
-        <v>210.0449625566679</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792695</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792695</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X17" t="n">
-        <v>2510.786507531615</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y17" t="n">
-        <v>2120.647175555804</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5682,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>926.1215352571926</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>515.1356304675851</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>100.0631803125816</v>
       </c>
       <c r="H20" t="n">
         <v>66.5121164321834</v>
@@ -5752,10 +5752,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5779,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3155.791869823214</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C22" t="n">
-        <v>290.4564109463977</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D22" t="n">
-        <v>140.339771534062</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E22" t="n">
-        <v>140.339771534062</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>140.339771534062</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
         <v>66.5121164321834</v>
@@ -5940,22 +5940,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U22" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V22" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W22" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X22" t="n">
-        <v>692.8974549201675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y22" t="n">
-        <v>472.1048757766374</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.423143692379</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C23" t="n">
-        <v>1600.460626751967</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1026.564081015894</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>1026.564081015894</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>615.5781762262866</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>200.505726071283</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5989,22 +5989,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296686</v>
@@ -6022,19 +6022,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993392</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993392</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X23" t="n">
-        <v>2746.162315732312</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.022983756501</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2887.609431745066</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C25" t="n">
-        <v>2718.673248817159</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D25" t="n">
-        <v>2568.556609404824</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E25" t="n">
-        <v>2568.556609404824</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>2568.556609404824</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R25" t="n">
-        <v>3290.050475718836</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S25" t="n">
-        <v>3290.050475718836</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T25" t="n">
-        <v>3290.050475718836</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="U25" t="n">
-        <v>3290.050475718836</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="V25" t="n">
-        <v>3290.050475718836</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="W25" t="n">
-        <v>3290.050475718836</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="X25" t="n">
-        <v>3290.050475718836</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y25" t="n">
-        <v>3069.257896575306</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2126.729101932992</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C26" t="n">
-        <v>1757.766584992581</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.50088638583</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E26" t="n">
-        <v>1013.712633787586</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>602.7267289979784</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>187.6542788429749</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3320.765796500697</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3067.235319774533</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X26" t="n">
-        <v>2513.328941997114</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y26" t="n">
-        <v>2513.328941997114</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379416</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W28" t="n">
-        <v>87.68248070098099</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1145.385526619113</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>787.1198280123626</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>787.1198280123626</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>376.1339232227551</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6463,10 +6463,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.5121164321834</v>
@@ -6651,22 +6651,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438285</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379416</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W31" t="n">
-        <v>377.0996507379416</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X31" t="n">
-        <v>149.1100998399243</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.1100998399243</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.60683175406</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.60683175406</v>
+        <v>1060.395265809902</v>
       </c>
       <c r="E32" t="n">
-        <v>736.8185791558158</v>
+        <v>674.6070132116572</v>
       </c>
       <c r="F32" t="n">
-        <v>325.8326743662082</v>
+        <v>674.6070132116572</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>259.5345630566537</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6706,10 +6706,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2599.855698536083</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C34" t="n">
-        <v>2599.855698536083</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>2599.855698536083</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E34" t="n">
-        <v>2599.855698536083</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>2599.855698536083</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>733.1984123552966</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X34" t="n">
-        <v>2781.504163366323</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y34" t="n">
-        <v>2781.504163366323</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1865.035106955553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.072590015141</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.806891408391</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E35" t="n">
-        <v>752.0186388101465</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="F35" t="n">
-        <v>341.032734020539</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="G35" t="n">
-        <v>341.032734020539</v>
+        <v>198.8933197100305</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2641.774278995486</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2251.634947019675</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2533.219997888695</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C37" t="n">
-        <v>2533.219997888695</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>2533.219997888695</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>2533.219997888695</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>2533.219997888695</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763052</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>2533.219997888695</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>2533.219997888695</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="X37" t="n">
-        <v>2533.219997888695</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y37" t="n">
-        <v>2533.219997888695</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.532988317206</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C38" t="n">
-        <v>892.5704713767946</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7174,16 +7174,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2764.506573888334</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2411.73791861822</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2038.27216035714</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>1648.132828381328</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.5121164321834</v>
+        <v>649.4080837454732</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>480.4719008175663</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>330.3552614052305</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7356,28 +7356,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V40" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W40" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X40" t="n">
-        <v>438.2129667142807</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.4203875707506</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.807527238423</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.845010298012</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D41" t="n">
-        <v>905.2831725805665</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="E41" t="n">
-        <v>519.4949199823222</v>
+        <v>581.1420803965848</v>
       </c>
       <c r="F41" t="n">
-        <v>108.5090151927147</v>
+        <v>170.1561756069772</v>
       </c>
       <c r="G41" t="n">
         <v>108.5090151927147</v>
@@ -7408,19 +7408,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.012457539437</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.546699278357</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.407367302545</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.2249443698244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C43" t="n">
-        <v>189.2249443698244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D43" t="n">
-        <v>189.2249443698244</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E43" t="n">
-        <v>189.2249443698244</v>
+        <v>194.4538753244747</v>
       </c>
       <c r="F43" t="n">
-        <v>189.2249443698244</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V43" t="n">
-        <v>410.0175235133545</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W43" t="n">
-        <v>410.0175235133545</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X43" t="n">
-        <v>410.0175235133545</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y43" t="n">
-        <v>189.2249443698244</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926361</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030285</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7654,10 +7654,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.2446860521933</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398575</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>786.9291742580801</v>
+        <v>853.1936815070578</v>
       </c>
       <c r="U46" t="n">
-        <v>786.9291742580801</v>
+        <v>853.1936815070578</v>
       </c>
       <c r="V46" t="n">
-        <v>532.2446860521933</v>
+        <v>853.1936815070578</v>
       </c>
       <c r="W46" t="n">
-        <v>532.2446860521933</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="X46" t="n">
-        <v>532.2446860521933</v>
+        <v>563.7765114700973</v>
       </c>
       <c r="Y46" t="n">
-        <v>532.2446860521933</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.887720574772</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>218.426770682299</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>207.8369205319744</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>247.9252960539636</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327426</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328823</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880641</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>214.0843260727917</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.8958752011192</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85541523008673</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827335</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345811</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>4.378130057857305</v>
+        <v>120.7614968806306</v>
       </c>
       <c r="T3" t="n">
-        <v>48.87899782081604</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>85.95446606071673</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818783</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776032</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,25 +22743,25 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474421</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.0448796648253</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270552</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>204.2955963362725</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0299246530026</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>266.3980159715228</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>171.5460391182789</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>8.094396245136551</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880633</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413186</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>4.378130057857021</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>48.87899782081573</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>203.526524286222</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738304</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859553</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776025</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>26.04487966482523</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.1062955648042</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>216.7578328961675</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637384</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H8" t="n">
-        <v>129.3682389399027</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U8" t="n">
         <v>251.1692605650303</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510934</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>143.6997511779965</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681611</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377129</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310535</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459997</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X9" t="n">
-        <v>190.3706927183329</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>101.2177245773851</v>
       </c>
       <c r="I10" t="n">
-        <v>73.49127351643266</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>139.5326190389247</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23311,10 +23311,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>187.5697153957347</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.7439527351651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>16.8441252232751</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>94.93667516389121</v>
       </c>
       <c r="F14" t="n">
-        <v>183.1377306860509</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>134.0899820213978</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>257.3206869561659</v>
       </c>
       <c r="G17" t="n">
-        <v>268.8242079902138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,22 +23943,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>64.81814676751881</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>261.3922111457263</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35.80215787152386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>92.93642970816846</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,22 +24180,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>330.4099222588442</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>161.9540908446118</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.73236023861654</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>90.97202647651307</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>216.2539533735629</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>104.3961369307879</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>147.460921829397</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>181.1251564493168</v>
+        <v>104.3961369307875</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.05997660827386</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>161.2670937523057</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>154.1943732987689</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>103.5155422290949</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.68728960924354</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>92.88947047322974</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>64.40928274777445</v>
+        <v>163.5503731422518</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>104.6566332501587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>60.9943217140997</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>173.9989569713598</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>23.25917518540928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43279175475578</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>51.25505738228075</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25608,16 +25608,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>41.28682228041237</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>349.8910368433335</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>18.75870671956285</v>
       </c>
       <c r="G43" t="n">
-        <v>44.54010860076367</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>83.30916272365869</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>86.93069603166549</v>
+        <v>152.5325582081534</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769752</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769754</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337675</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112605</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963039</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="H2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318743</v>
       </c>
       <c r="I2" t="n">
         <v>296136.8796318747</v>
@@ -26343,16 +26343,16 @@
         <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="M2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318743</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318744</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751303</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.8038407439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336678</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613405</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.6067490486</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1921479602627</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>107.192147960263</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
         <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26438,10 +26438,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
         <v>584.6469890061231</v>
@@ -26453,7 +26453,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902089</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902091</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.0977908509</v>
+        <v>-510698.884973262</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.33718427909</v>
+        <v>80658.01754758344</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587415</v>
+        <v>80658.0175475835</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521927</v>
+        <v>-409962.7469303618</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033054</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033058</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.485575341</v>
+        <v>168106.9519747609</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324265</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359762</v>
+        <v>56715.45483542802</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26813,7 +26813,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572207</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568318</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803938</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761081</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761081</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359734</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887085</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761081</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903398</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877943</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766334</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154183</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871683</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270566</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695509</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961052</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656775</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611123</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339631</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922718</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645456</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383933</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358322</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206852</v>
+        <v>298.9161177975327</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720418</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>170.929937097644</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050584</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297034</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055014</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179388</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864953</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793584</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120828</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674033</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910841</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825127</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154185</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961055</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645458</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986737</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358324</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206855</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720421</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>222.6641930179335</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050589</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727198</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910843</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043779</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718106</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>137.90816207296</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744185</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040798</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.01831452431455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>100.600008055958</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986669</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887085</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469683</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>36.95552968331378</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.617141247259184</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945134</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394199</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813567</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718129</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040821</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431469</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559582</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887088</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>80.06794857348902</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592692</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M28" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O28" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
